--- a/07-design-dynamic/Micro-TCG-Ian-Schreiber.xlsx
+++ b/07-design-dynamic/Micro-TCG-Ian-Schreiber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-gamedev\gamedev-5783\09-design-dynamic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-gamedev\gamedev-5784\07-design-dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF03AAFF-705E-41CB-BDAA-AF89B3E84AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FFDC6C-49C4-4670-8D7A-4F7217D1D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -815,9 +815,9 @@
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="1.3671875" customWidth="1"/>
-    <col min="7" max="7" width="13.578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7890625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="7" max="7" width="21.578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.68359375" style="1" customWidth="1"/>
     <col min="10" max="11" width="9.1015625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.1015625" style="2" customWidth="1"/>
@@ -867,21 +867,21 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="1">
         <f>((C2-1)/5)*3</f>
-        <v>2.4000000000000004</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="H2" s="1">
         <f>(C2/5)*D2</f>
-        <v>2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="I2" s="1">
         <f>F2</f>
@@ -896,7 +896,7 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(G2:K2)</f>
-        <v>0.40000000000000036</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -984,7 +984,7 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1012,11 +1012,11 @@
       </c>
       <c r="K5" s="1">
         <f>-B5</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="L5" s="2">
         <f>SUM(G5:K5)</f>
-        <v>2.4000000000000004</v>
+        <v>0.40000000000000036</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
